--- a/WorkBot/main/backend/pricing/GneralItemPricing/GeneralItemPricing.xlsx
+++ b/WorkBot/main/backend/pricing/GneralItemPricing/GeneralItemPricing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\Pricing\GneralItemPricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\pricing\GneralItemPricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE024069-5DCB-4FE9-9003-EFA71F92A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9D9869-D9E2-4540-AF80-CE90DA739B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="182">
   <si>
     <t>Item</t>
   </si>
@@ -67,13 +67,13 @@
     <t>LD458</t>
   </si>
   <si>
-    <t>2.26 per LB</t>
+    <t>2.4 per LB</t>
   </si>
   <si>
     <t>2/150Cnt</t>
   </si>
   <si>
-    <t>4.32 per LB</t>
+    <t>4.02 per LB</t>
   </si>
   <si>
     <t>1 / 15#</t>
@@ -82,75 +82,72 @@
     <t>Sausage</t>
   </si>
   <si>
+    <t>0.26 per EA</t>
+  </si>
+  <si>
+    <t>106 / 1.5 OZ</t>
+  </si>
+  <si>
+    <t>0.25 per EA</t>
+  </si>
+  <si>
+    <t>1/10 Lb</t>
+  </si>
+  <si>
+    <t>1 / 10#</t>
+  </si>
+  <si>
+    <t>Chicken Sausage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renzi </t>
+  </si>
+  <si>
+    <t>0.3 per OZ</t>
+  </si>
+  <si>
+    <t>89 / 1.82 OZ</t>
+  </si>
+  <si>
+    <t>Vegan Sausage</t>
+  </si>
+  <si>
+    <t>0.95 per EA</t>
+  </si>
+  <si>
+    <t>96 / 1.66OZ</t>
+  </si>
+  <si>
+    <t>FE128</t>
+  </si>
+  <si>
+    <t>0.56 per EA</t>
+  </si>
+  <si>
+    <t>1.89 per EA</t>
+  </si>
+  <si>
+    <t>Vegan Egg</t>
+  </si>
+  <si>
+    <t>NK554</t>
+  </si>
+  <si>
+    <t>0.41 per OZ</t>
+  </si>
+  <si>
+    <t>120/2 Oz</t>
+  </si>
+  <si>
+    <t>Egg Patty (Cage Free)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sysco </t>
+  </si>
+  <si>
     <t>0.28 per EA</t>
   </si>
   <si>
-    <t>106 / 1.5 OZ</t>
-  </si>
-  <si>
-    <t>0.25 per EA</t>
-  </si>
-  <si>
-    <t>1/10 Lb</t>
-  </si>
-  <si>
-    <t>0.26 per EA</t>
-  </si>
-  <si>
-    <t>1 / 10#</t>
-  </si>
-  <si>
-    <t>Chicken Sausage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renzi </t>
-  </si>
-  <si>
-    <t>0.3 per OZ</t>
-  </si>
-  <si>
-    <t>89 / 1.82 OZ</t>
-  </si>
-  <si>
-    <t>Vegan Sausage</t>
-  </si>
-  <si>
-    <t>0.95 per EA</t>
-  </si>
-  <si>
-    <t>96 / 1.66OZ</t>
-  </si>
-  <si>
-    <t>FE128</t>
-  </si>
-  <si>
-    <t>0.56 per EA</t>
-  </si>
-  <si>
-    <t>1.93 per EA</t>
-  </si>
-  <si>
-    <t>Vegan Egg</t>
-  </si>
-  <si>
-    <t>NK554</t>
-  </si>
-  <si>
-    <t>0.41 per OZ</t>
-  </si>
-  <si>
-    <t>120/2 Oz</t>
-  </si>
-  <si>
-    <t>Egg Patty (Cage Free)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sysco </t>
-  </si>
-  <si>
-    <t>0.27 per EA</t>
-  </si>
-  <si>
     <t>168 / 1.5 OZ</t>
   </si>
   <si>
@@ -169,13 +166,13 @@
     <t>Cream Cheese</t>
   </si>
   <si>
-    <t>2.15 per LB</t>
+    <t>2.14 per LB</t>
   </si>
   <si>
     <t>1 / 30 LB</t>
   </si>
   <si>
-    <t>2.16 per LB</t>
+    <t>2.1 per LB</t>
   </si>
   <si>
     <t>1 / 30#</t>
@@ -184,7 +181,7 @@
     <t>Croissant - Butter</t>
   </si>
   <si>
-    <t>1.01 per EA</t>
+    <t>1.17 per EA</t>
   </si>
   <si>
     <t>54 / 3.17OZ</t>
@@ -202,7 +199,7 @@
     <t>Croissant - Almond</t>
   </si>
   <si>
-    <t>1.25 per EA</t>
+    <t>1.36 per EA</t>
   </si>
   <si>
     <t>66 / 3.35OZ</t>
@@ -220,7 +217,7 @@
     <t>Croissant - Chocolate</t>
   </si>
   <si>
-    <t>1.2 per EA</t>
+    <t>1.35 per EA</t>
   </si>
   <si>
     <t>CW526</t>
@@ -241,7 +238,7 @@
     <t>Croissant - Mini Assorted</t>
   </si>
   <si>
-    <t>0.52 per OZ</t>
+    <t>0.5 per OZ</t>
   </si>
   <si>
     <t>108 / 1.5 OZ</t>
@@ -295,7 +292,7 @@
     <t>0017354</t>
   </si>
   <si>
-    <t>0.0 per G</t>
+    <t>0.19 per EA</t>
   </si>
   <si>
     <t>120 / 63 G</t>
@@ -397,19 +394,19 @@
     <t>Butter - Salted</t>
   </si>
   <si>
-    <t>3.5 per LB</t>
+    <t>3.76 per LB</t>
   </si>
   <si>
     <t>36 / 1 LB</t>
   </si>
   <si>
-    <t>3.38 per LB</t>
+    <t>3.47 per LB</t>
   </si>
   <si>
     <t>36/1 Lb</t>
   </si>
   <si>
-    <t>3.74 per LB</t>
+    <t>3.87 per LB</t>
   </si>
   <si>
     <t>36 / 1#</t>
@@ -418,13 +415,13 @@
     <t>Butter - Unsalted</t>
   </si>
   <si>
-    <t>3.62 per LB</t>
-  </si>
-  <si>
-    <t>3.35 per LB</t>
-  </si>
-  <si>
-    <t>3.47 per LB</t>
+    <t>3.51 per LB</t>
+  </si>
+  <si>
+    <t>3.72 per LB</t>
+  </si>
+  <si>
+    <t>3.48 per LB</t>
   </si>
   <si>
     <t>Yogurt - BIB</t>
@@ -451,7 +448,7 @@
     <t>Cheese - American</t>
   </si>
   <si>
-    <t>2.56 per LB</t>
+    <t>2.67 per LB</t>
   </si>
   <si>
     <t>4 / 5 LB</t>
@@ -463,7 +460,7 @@
     <t>4/5 Lb</t>
   </si>
   <si>
-    <t>2.62 per LB</t>
+    <t>2.71 per LB</t>
   </si>
   <si>
     <t>4 / 5#</t>
@@ -481,7 +478,7 @@
     <t>8/1.5 Lb</t>
   </si>
   <si>
-    <t>3.48 per LB</t>
+    <t>3.39 per LB</t>
   </si>
   <si>
     <t>6 / 1.5#</t>
@@ -496,7 +493,7 @@
     <t>4.91 per LB</t>
   </si>
   <si>
-    <t>3.92 per LB</t>
+    <t>3.83 per LB</t>
   </si>
   <si>
     <t>Cheese - Muenster</t>
@@ -505,7 +502,7 @@
     <t>HH264</t>
   </si>
   <si>
-    <t>0.29 per OZ</t>
+    <t>0.25 per OZ</t>
   </si>
   <si>
     <t>10/1 Lb</t>
@@ -529,7 +526,7 @@
     <t>6/1.5 Lb</t>
   </si>
   <si>
-    <t>3.14 per LB</t>
+    <t>3.05 per LB</t>
   </si>
   <si>
     <t>Cheese - Fresh Mozzarella</t>
@@ -544,7 +541,7 @@
     <t>6/2 Lb</t>
   </si>
   <si>
-    <t>4.34 per LB</t>
+    <t>4.72 per LB</t>
   </si>
   <si>
     <t>8 / 1#</t>
@@ -553,7 +550,7 @@
     <t>Sour Cream</t>
   </si>
   <si>
-    <t>1.82 per LB</t>
+    <t>1.64 per LB</t>
   </si>
   <si>
     <t>4 / 5LB</t>
@@ -562,10 +559,10 @@
     <t>T9026</t>
   </si>
   <si>
-    <t>1.87 per LB</t>
-  </si>
-  <si>
-    <t>1.56 per LB</t>
+    <t>1.62 per LB</t>
+  </si>
+  <si>
+    <t>1.66 per LB</t>
   </si>
   <si>
     <t>End</t>
@@ -757,9 +754,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -795,6 +792,69 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,88 +862,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1202,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,60 +1220,60 @@
     <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="15" style="30" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="21" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="27" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="40" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14" style="44" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="14" style="33" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="20" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1276,7 +1285,7 @@
       <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1288,7 +1297,7 @@
       <c r="M2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="11" t="s">
@@ -1302,38 +1311,38 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="16">
         <v>1151422</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="20">
         <v>45.4</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="37">
-        <v>33.880000000000003</v>
+      <c r="J3" s="26">
+        <v>35.96</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="28">
         <v>18038</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="43">
-        <v>64.77</v>
+      <c r="N3" s="32">
+        <v>60.23</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>18</v>
@@ -1346,1026 +1355,1026 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="17">
         <v>7421761</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="32">
-        <v>29.6</v>
+      <c r="F4" s="21">
+        <v>27.23</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="23">
         <v>50778</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="27">
         <v>26.26</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="29">
         <v>37019</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="33">
+        <v>27.77</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" s="44">
-        <v>27.27</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="L5" s="29">
+        <v>32017</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="40">
-        <v>32017</v>
-      </c>
-      <c r="M5" s="42" t="s">
+      <c r="N5" s="33">
+        <v>48.75</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" s="44">
-        <v>48.98</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="17">
         <v>7143223</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="21">
+        <v>91.2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="32">
-        <v>91.2</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="J6" s="27">
         <v>88.9</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <v>11458</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="44">
-        <v>86.76</v>
+      <c r="M6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="33">
+        <v>85.16</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="27">
+        <v>99.59</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" s="38">
-        <v>99.59</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="17">
+        <v>4617771</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28">
-        <v>4617771</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="21">
+        <v>46.48</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="32">
-        <v>45.56</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="27">
+        <v>53.23</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="38">
-        <v>53.23</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="29">
+        <v>27098</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="40">
-        <v>27098</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="44">
+      <c r="N8" s="33">
         <v>50.2</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1161181</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1161181</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="21">
+        <v>64.28</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="32">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="L9" s="29">
+        <v>29999</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="40">
-        <v>29999</v>
-      </c>
-      <c r="M9" s="42" t="s">
+      <c r="N9" s="33">
+        <v>63.09</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="N9" s="44">
-        <v>64.930000000000007</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2700171</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="28">
-        <v>2700171</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="21">
+        <v>63.19</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="32">
-        <v>54.71</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="J10" s="27">
+        <v>55.19</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="J10" s="38">
-        <v>55.19</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="17">
         <v>2700817</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="21">
+        <v>89.89</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="32">
-        <v>82.52</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="J11" s="27">
+        <v>81.59</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" s="38">
-        <v>81.59</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2700827</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="28">
-        <v>2700827</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="21">
+        <v>88.79</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="32">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="I12" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="J12" s="27">
+        <v>80.33</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="38">
-        <v>80.33</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1080739</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1080739</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="21">
+        <v>80.94</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="32">
-        <v>83.77</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="J16" s="27">
+        <v>58.94</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="J16" s="38">
-        <v>58.94</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="17">
         <v>2072536</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="21">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="32">
-        <v>76.709999999999994</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="J18" s="27">
+        <v>69.7</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="J18" s="38">
-        <v>69.7</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="17">
+        <v>8821554</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="28">
-        <v>8821554</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="32">
-        <v>49.76</v>
+      <c r="F19" s="21">
+        <v>51.21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="E20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="21">
+        <v>22.97</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="32">
-        <v>22.97</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="L20" s="29">
+        <v>34388</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="40">
-        <v>34388</v>
-      </c>
-      <c r="M20" s="42" t="s">
+      <c r="N20" s="33">
+        <v>25.65</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="N20" s="44">
-        <v>25.65</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="34" t="s">
+      <c r="I21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="J21" s="27">
+        <v>29.52</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="38">
-        <v>29.52</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="29">
+        <v>60304</v>
+      </c>
+      <c r="M21" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="40">
-        <v>60304</v>
-      </c>
-      <c r="M21" s="42" t="s">
+      <c r="N21" s="33">
+        <v>29.07</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="N21" s="44">
-        <v>29.07</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" s="17">
+        <v>7127824</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="28">
-        <v>7127824</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="F22" s="21">
+        <v>30.99</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="32">
-        <v>30.99</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="I22" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="27">
+        <v>31.51</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="L22" s="29">
+        <v>60295</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="33">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="J22" s="38">
-        <v>31.51</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="40">
-        <v>60295</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22" s="44">
-        <v>32.729999999999997</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="23">
+        <v>65350</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="34">
-        <v>65350</v>
-      </c>
-      <c r="I23" s="36" t="s">
+      <c r="J23" s="27">
+        <v>30.81</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="38">
-        <v>30.81</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="29">
+        <v>51153</v>
+      </c>
+      <c r="M23" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="40">
-        <v>51153</v>
-      </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="33">
+        <v>30.44</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="N23" s="44">
-        <v>30.44</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="17">
+        <v>1865161</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="28">
-        <v>1865161</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="F24" s="21">
+        <v>29.24</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="32">
-        <v>29.24</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="I24" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="38">
-        <v>36.18</v>
+      <c r="J24" s="27">
+        <v>33.83</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="40">
+        <v>85</v>
+      </c>
+      <c r="L24" s="29">
         <v>25104</v>
       </c>
-      <c r="M24" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" s="44">
-        <v>29.83</v>
+      <c r="M24" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" s="33">
+        <v>30.21</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="17">
+        <v>7073742</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="28">
-        <v>7073742</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="21">
+        <v>16.88</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="32">
-        <v>16.88</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="I25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="27">
+        <v>34.61</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="29">
+        <v>25554</v>
+      </c>
+      <c r="M25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="38">
-        <v>34.61</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="40">
-        <v>25554</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="N25" s="44">
+      <c r="N25" s="33">
         <v>18.46</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="17">
         <v>5925987</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="21">
+        <v>135.49</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="32">
-        <v>126.09</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="23">
+        <v>73400</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="34">
-        <v>73400</v>
-      </c>
-      <c r="I26" s="36" t="s">
+      <c r="J26" s="27">
+        <v>124.87</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="38">
-        <v>121.8</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="29">
+        <v>29046</v>
+      </c>
+      <c r="M26" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L26" s="40">
-        <v>29046</v>
-      </c>
-      <c r="M26" s="42" t="s">
+      <c r="N26" s="33">
+        <v>139.31</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="N26" s="44">
-        <v>134.75</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3031442</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="28">
-        <v>3031442</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="F27" s="21">
+        <v>126.49</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="23">
+        <v>73410</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="32">
-        <v>130.22</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="34">
-        <v>73410</v>
-      </c>
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="27">
+        <v>133.88</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="29">
+        <v>29047</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="38">
-        <v>120.43</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L27" s="40">
-        <v>29047</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" s="44">
-        <v>124.96</v>
+      <c r="N27" s="33">
+        <v>125.33</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="17">
         <v>6472502</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="21">
+        <v>44.35</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="32">
-        <v>44.35</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="I28" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="27">
+        <v>37.79</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="38">
-        <v>37.79</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="29">
+        <v>76474</v>
+      </c>
+      <c r="M28" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="40">
-        <v>76474</v>
-      </c>
-      <c r="M28" s="42" t="s">
+      <c r="N28" s="33">
+        <v>40.51</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="N28" s="44">
-        <v>40.51</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="17">
+        <v>9035601</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="28">
-        <v>9035601</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="21">
+        <v>53.5</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="32">
-        <v>51.25</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="23">
+        <v>72976</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="34">
-        <v>72976</v>
-      </c>
-      <c r="I29" s="36" t="s">
+      <c r="J29" s="27">
+        <v>55.19</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J29" s="38">
-        <v>55.19</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="29">
+        <v>25803</v>
+      </c>
+      <c r="M29" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="L29" s="40">
-        <v>25803</v>
-      </c>
-      <c r="M29" s="42" t="s">
+      <c r="N29" s="33">
+        <v>54.22</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="N29" s="44">
-        <v>52.39</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="34" t="s">
+      <c r="I30" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="J30" s="27">
+        <v>51.99</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J30" s="38">
-        <v>51.99</v>
-      </c>
-      <c r="K30" s="9" t="s">
+      <c r="L30" s="29">
+        <v>25790</v>
+      </c>
+      <c r="M30" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="L30" s="40">
-        <v>25790</v>
-      </c>
-      <c r="M30" s="42" t="s">
+      <c r="N30" s="33">
+        <v>30.47</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="N30" s="44">
-        <v>31.29</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="34" t="s">
+      <c r="I31" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="J31" s="27">
+        <v>58.96</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="29">
+        <v>25781</v>
+      </c>
+      <c r="M31" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="J31" s="38">
-        <v>58.96</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="L31" s="40">
-        <v>25781</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="44">
-        <v>35.26</v>
+      <c r="N31" s="33">
+        <v>34.43</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="34" t="s">
+      <c r="I32" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="J32" s="27">
+        <v>40.57</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="38">
-        <v>46.26</v>
-      </c>
-      <c r="K32" s="9" t="s">
+      <c r="L32" s="29">
+        <v>25824</v>
+      </c>
+      <c r="M32" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="40">
-        <v>25824</v>
-      </c>
-      <c r="M32" s="42" t="s">
+      <c r="N32" s="33">
+        <v>3.18</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="N32" s="44">
-        <v>3.27</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="34" t="s">
+      <c r="I33" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="J33" s="27">
+        <v>32.81</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J33" s="38">
-        <v>32.81</v>
-      </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="29">
+        <v>25793</v>
+      </c>
+      <c r="M33" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="40">
-        <v>25793</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="44">
-        <v>28.23</v>
+      <c r="N33" s="33">
+        <v>27.41</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="34" t="s">
+      <c r="H34" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="J34" s="27">
+        <v>49.23</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="38">
-        <v>49.23</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="29">
+        <v>25640</v>
+      </c>
+      <c r="M34" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="40">
-        <v>25640</v>
-      </c>
-      <c r="M34" s="42" t="s">
+      <c r="N34" s="33">
+        <v>37.74</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="N34" s="44">
-        <v>34.72</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1203207</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="28">
-        <v>1203207</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="21">
+        <v>32.75</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="32">
-        <v>36.39</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="I35" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="J35" s="27">
+        <v>32.43</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L35" s="29">
+        <v>25328</v>
+      </c>
+      <c r="M35" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="J35" s="38">
-        <v>37.36</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L35" s="40">
-        <v>25328</v>
-      </c>
-      <c r="M35" s="42" t="s">
+      <c r="N35" s="33">
+        <v>33.26</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>181</v>
-      </c>
-      <c r="N35" s="44">
-        <v>31.26</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
